--- a/Teams/Goals.xlsx
+++ b/Teams/Goals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F72F19-2F8C-304D-A88F-7F826037DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E5EEBC-DE77-AF4D-84D1-5D1FE1AFF80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1120" windowWidth="26920" windowHeight="16940" xr2:uid="{FC2AE6C8-62E2-9A44-A9A5-EF4B7A526443}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Menu</t>
   </si>
@@ -128,13 +128,37 @@
   </si>
   <si>
     <t>_IsComplete: bool</t>
+  </si>
+  <si>
+    <t>create a goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu </t>
+  </si>
+  <si>
+    <t>List goals</t>
+  </si>
+  <si>
+    <t>GoaltoList(): List&lt;Goals&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DisplayMenu() ---&gt; DisplayGoalTypes ---&gt; Create the Goal ---&gt; GoalToList()</t>
+  </si>
+  <si>
+    <t>_goalList: List&lt;Goals&gt;</t>
+  </si>
+  <si>
+    <t>DisplayGoals(): void</t>
+  </si>
+  <si>
+    <t>DisplayMenu() ---&gt; DisplayGoals()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +177,61 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,16 +304,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BDCE5D-40D2-BF4C-B341-5B5B5F054B8B}">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -571,24 +667,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -639,7 +735,9 @@
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
@@ -677,87 +775,133 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F14" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Teams/Goals.xlsx
+++ b/Teams/Goals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E5EEBC-DE77-AF4D-84D1-5D1FE1AFF80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381E913C-AC8A-554C-9939-291003A07894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1120" windowWidth="26920" windowHeight="16940" xr2:uid="{FC2AE6C8-62E2-9A44-A9A5-EF4B7A526443}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Menu</t>
   </si>
@@ -142,9 +142,6 @@
     <t>GoaltoList(): List&lt;Goals&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> DisplayMenu() ---&gt; DisplayGoalTypes ---&gt; Create the Goal ---&gt; GoalToList()</t>
-  </si>
-  <si>
     <t>_goalList: List&lt;Goals&gt;</t>
   </si>
   <si>
@@ -152,13 +149,22 @@
   </si>
   <si>
     <t>DisplayMenu() ---&gt; DisplayGoals()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DisplayMenu() ---&gt; DisplayGoalTypes ---&gt; Create the Goal ---&gt; GoalToString() ---&gt; GoalToList()</t>
+  </si>
+  <si>
+    <t>Record and event</t>
+  </si>
+  <si>
+    <t>DisplayMenu() ---&gt; DisplayGoals() ---&gt; maybe save scores in a list and match indx # to index in string - no list of goals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +238,14 @@
       <b/>
       <sz val="14"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +345,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BDCE5D-40D2-BF4C-B341-5B5B5F054B8B}">
-  <dimension ref="B1:L30"/>
+  <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -736,7 +751,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="4"/>
@@ -781,7 +796,7 @@
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -883,7 +898,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -901,7 +916,22 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Teams/Goals.xlsx
+++ b/Teams/Goals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryannleslie/Documents/Study/cse210/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381E913C-AC8A-554C-9939-291003A07894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713CF6D1-5096-7841-9F09-49E066176365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1120" windowWidth="26920" windowHeight="16940" xr2:uid="{FC2AE6C8-62E2-9A44-A9A5-EF4B7A526443}"/>
+    <workbookView xWindow="31560" yWindow="2100" windowWidth="29660" windowHeight="18820" xr2:uid="{FC2AE6C8-62E2-9A44-A9A5-EF4B7A526443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Menu</t>
   </si>
@@ -58,12 +58,6 @@
     <t>_score: int</t>
   </si>
   <si>
-    <t>_name: "string"</t>
-  </si>
-  <si>
-    <t>_description: "string"</t>
-  </si>
-  <si>
     <t>_totalScore: int</t>
   </si>
   <si>
@@ -76,39 +70,21 @@
     <t>DisplayMenu(): void</t>
   </si>
   <si>
-    <t>abstract IsItComplete()</t>
-  </si>
-  <si>
     <t>override isItComplete(): string</t>
   </si>
   <si>
-    <t>Saving</t>
-  </si>
-  <si>
-    <t>Loading</t>
-  </si>
-  <si>
     <t>_fileName</t>
   </si>
   <si>
     <t>_goalsSaved: List&lt;string&gt;</t>
   </si>
   <si>
-    <t>SaveGoals()</t>
-  </si>
-  <si>
-    <t>LoadGoals()</t>
-  </si>
-  <si>
     <t>GoalToList(): List&lt;string&gt;</t>
   </si>
   <si>
     <t>GoalToString(): string</t>
   </si>
   <si>
-    <t>abstract RecordEvent()</t>
-  </si>
-  <si>
     <t>Awards</t>
   </si>
   <si>
@@ -124,9 +100,6 @@
     <t>AddBonus(): int</t>
   </si>
   <si>
-    <t>DisplayGoalTypes():</t>
-  </si>
-  <si>
     <t>_IsComplete: bool</t>
   </si>
   <si>
@@ -139,32 +112,89 @@
     <t>List goals</t>
   </si>
   <si>
-    <t>GoaltoList(): List&lt;Goals&gt;</t>
-  </si>
-  <si>
-    <t>_goalList: List&lt;Goals&gt;</t>
-  </si>
-  <si>
     <t>DisplayGoals(): void</t>
   </si>
   <si>
     <t>DisplayMenu() ---&gt; DisplayGoals()</t>
   </si>
   <si>
-    <t xml:space="preserve"> DisplayMenu() ---&gt; DisplayGoalTypes ---&gt; Create the Goal ---&gt; GoalToString() ---&gt; GoalToList()</t>
-  </si>
-  <si>
-    <t>Record and event</t>
-  </si>
-  <si>
-    <t>DisplayMenu() ---&gt; DisplayGoals() ---&gt; maybe save scores in a list and match indx # to index in string - no list of goals</t>
+    <t>MenuNewGoal():void</t>
+  </si>
+  <si>
+    <t>_name:string</t>
+  </si>
+  <si>
+    <t>_description: string</t>
+  </si>
+  <si>
+    <t>_completeSymbol: string</t>
+  </si>
+  <si>
+    <t>_isComplete: bool</t>
+  </si>
+  <si>
+    <t>_goalString:string</t>
+  </si>
+  <si>
+    <t>_goalList:List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>__scoreList: List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>IsItComplete(): bool abstract</t>
+  </si>
+  <si>
+    <t>RecordEvent(): int abstract</t>
+  </si>
+  <si>
+    <t>ToCSVRecord(): string abstract</t>
+  </si>
+  <si>
+    <t>ScoreToList(): List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>SaveGoals(): void</t>
+  </si>
+  <si>
+    <t>_goalType: string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>override ToCSVRecord(): void</t>
+  </si>
+  <si>
+    <t>Record an event</t>
+  </si>
+  <si>
+    <t>TypeToList(): List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>_type: string</t>
+  </si>
+  <si>
+    <t>Saving/ Loading</t>
+  </si>
+  <si>
+    <t>LoadGoals(): List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>DisplayMenu() ---&gt; DisplayGoals() ---&gt; turn choice to int ---&gt; Type.RecordEvent()</t>
+  </si>
+  <si>
+    <t>Goal type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DisplayMenu() ---&gt; DisplayGoalTypes ---&gt; Create the Goal ---&gt; GoalToString() ---&gt; GoalToList() ---&gt; ScoreTList() ---&gt; TypeToList()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,14 +251,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -243,9 +265,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,8 +338,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,11 +359,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BDCE5D-40D2-BF4C-B341-5B5B5F054B8B}">
-  <dimension ref="B1:L34"/>
+  <dimension ref="B1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -674,264 +690,324 @@
     <col min="4" max="6" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="3.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="3" t="s">
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="3" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
-        <v>40</v>
+      <c r="E44" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
